--- a/data_processed/20250801/BTCUSDVOLSURFACE_REGULARIZED_20250801.xlsx
+++ b/data_processed/20250801/BTCUSDVOLSURFACE_REGULARIZED_20250801.xlsx
@@ -524,7 +524,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,BF,CA</t>
         </is>
       </c>
     </row>
@@ -578,7 +578,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -6164,7 +6164,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -6193,7 +6193,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -6251,7 +6251,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -6280,7 +6280,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -6338,7 +6338,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -6367,7 +6367,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -6678,7 +6678,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -6707,7 +6707,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -6765,7 +6765,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -12867,7 +12867,7 @@
       </c>
       <c r="G490" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -18174,7 +18174,7 @@
       </c>
       <c r="G701" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -18232,7 +18232,7 @@
       </c>
       <c r="G703" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -18261,7 +18261,7 @@
       </c>
       <c r="G704" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -18290,7 +18290,7 @@
       </c>
       <c r="G705" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -18319,7 +18319,7 @@
       </c>
       <c r="G706" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -29150,7 +29150,7 @@
       </c>
       <c r="G1137" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -33774,7 +33774,7 @@
       </c>
       <c r="G1321" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -33803,7 +33803,7 @@
       </c>
       <c r="G1322" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,BF,CA</t>
         </is>
       </c>
     </row>
@@ -34269,7 +34269,7 @@
       </c>
       <c r="G1340" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -34443,7 +34443,7 @@
       </c>
       <c r="G1346" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -34501,7 +34501,7 @@
       </c>
       <c r="G1348" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -34588,7 +34588,7 @@
       </c>
       <c r="G1351" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -34675,7 +34675,7 @@
       </c>
       <c r="G1354" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -35661,7 +35661,7 @@
       </c>
       <c r="G1392" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -36181,7 +36181,7 @@
       </c>
       <c r="G1412" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -36239,7 +36239,7 @@
       </c>
       <c r="G1414" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -36268,7 +36268,7 @@
       </c>
       <c r="G1415" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -36355,7 +36355,7 @@
       </c>
       <c r="G1418" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -36413,7 +36413,7 @@
       </c>
       <c r="G1420" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -36442,7 +36442,7 @@
       </c>
       <c r="G1421" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -36500,7 +36500,7 @@
       </c>
       <c r="G1423" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -36616,7 +36616,7 @@
       </c>
       <c r="G1427" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -37294,7 +37294,7 @@
       </c>
       <c r="G1453" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -37352,7 +37352,7 @@
       </c>
       <c r="G1455" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -37410,7 +37410,7 @@
       </c>
       <c r="G1457" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -37468,7 +37468,7 @@
       </c>
       <c r="G1459" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -37497,7 +37497,7 @@
       </c>
       <c r="G1460" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -37725,7 +37725,7 @@
       </c>
       <c r="G1468" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -37754,7 +37754,7 @@
       </c>
       <c r="G1469" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -38324,7 +38324,7 @@
       </c>
       <c r="G1491" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -38411,7 +38411,7 @@
       </c>
       <c r="G1494" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -38469,7 +38469,7 @@
       </c>
       <c r="G1496" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -38726,7 +38726,7 @@
       </c>
       <c r="G1505" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,BF,CA</t>
         </is>
       </c>
     </row>
@@ -38755,7 +38755,7 @@
       </c>
       <c r="G1506" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -41749,7 +41749,7 @@
       </c>
       <c r="G1624" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -41778,7 +41778,7 @@
       </c>
       <c r="G1625" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -41923,7 +41923,7 @@
       </c>
       <c r="G1630" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -42085,7 +42085,7 @@
       </c>
       <c r="G1636" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -45038,7 +45038,7 @@
       </c>
       <c r="G1753" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -45067,7 +45067,7 @@
       </c>
       <c r="G1754" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -45154,7 +45154,7 @@
       </c>
       <c r="G1757" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -45183,7 +45183,7 @@
       </c>
       <c r="G1758" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -45212,7 +45212,7 @@
       </c>
       <c r="G1759" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -45241,7 +45241,7 @@
       </c>
       <c r="G1760" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -45411,7 +45411,7 @@
       </c>
       <c r="G1766" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -45973,7 +45973,7 @@
       </c>
       <c r="G1788" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -46085,7 +46085,7 @@
       </c>
       <c r="G1792" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250801/BTCUSDVOLSURFACE_REGULARIZED_20250801.xlsx
+++ b/data_processed/20250801/BTCUSDVOLSURFACE_REGULARIZED_20250801.xlsx
@@ -524,7 +524,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -578,7 +578,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -6707,7 +6707,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -6765,7 +6765,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -12867,7 +12867,7 @@
       </c>
       <c r="G490" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -29150,7 +29150,7 @@
       </c>
       <c r="G1137" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -33774,7 +33774,7 @@
       </c>
       <c r="G1321" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -33803,7 +33803,7 @@
       </c>
       <c r="G1322" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -35661,7 +35661,7 @@
       </c>
       <c r="G1392" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -37754,7 +37754,7 @@
       </c>
       <c r="G1469" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -38726,7 +38726,7 @@
       </c>
       <c r="G1505" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -38755,7 +38755,7 @@
       </c>
       <c r="G1506" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -42085,7 +42085,7 @@
       </c>
       <c r="G1636" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250801/BTCUSDVOLSURFACE_REGULARIZED_20250801.xlsx
+++ b/data_processed/20250801/BTCUSDVOLSURFACE_REGULARIZED_20250801.xlsx
@@ -524,7 +524,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>BF,CS,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -6164,7 +6164,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6193,7 +6193,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6251,7 +6251,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6280,7 +6280,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6338,7 +6338,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6367,7 +6367,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6678,7 +6678,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18174,7 +18174,7 @@
       </c>
       <c r="G701" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18232,7 +18232,7 @@
       </c>
       <c r="G703" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -18261,7 +18261,7 @@
       </c>
       <c r="G704" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18290,7 +18290,7 @@
       </c>
       <c r="G705" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -18319,7 +18319,7 @@
       </c>
       <c r="G706" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -33803,7 +33803,7 @@
       </c>
       <c r="G1322" t="inlineStr">
         <is>
-          <t>BF,CS,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -34269,7 +34269,7 @@
       </c>
       <c r="G1340" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -34443,7 +34443,7 @@
       </c>
       <c r="G1346" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -34501,7 +34501,7 @@
       </c>
       <c r="G1348" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -34588,7 +34588,7 @@
       </c>
       <c r="G1351" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -34675,7 +34675,7 @@
       </c>
       <c r="G1354" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -36181,7 +36181,7 @@
       </c>
       <c r="G1412" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36239,7 +36239,7 @@
       </c>
       <c r="G1414" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36268,7 +36268,7 @@
       </c>
       <c r="G1415" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -36355,7 +36355,7 @@
       </c>
       <c r="G1418" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36413,7 +36413,7 @@
       </c>
       <c r="G1420" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36442,7 +36442,7 @@
       </c>
       <c r="G1421" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -36500,7 +36500,7 @@
       </c>
       <c r="G1423" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -36616,7 +36616,7 @@
       </c>
       <c r="G1427" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -37294,7 +37294,7 @@
       </c>
       <c r="G1453" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -37352,7 +37352,7 @@
       </c>
       <c r="G1455" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -37410,7 +37410,7 @@
       </c>
       <c r="G1457" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -37468,7 +37468,7 @@
       </c>
       <c r="G1459" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -37497,7 +37497,7 @@
       </c>
       <c r="G1460" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -37725,7 +37725,7 @@
       </c>
       <c r="G1468" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38324,7 +38324,7 @@
       </c>
       <c r="G1491" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38411,7 +38411,7 @@
       </c>
       <c r="G1494" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38469,7 +38469,7 @@
       </c>
       <c r="G1496" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -38726,7 +38726,7 @@
       </c>
       <c r="G1505" t="inlineStr">
         <is>
-          <t>BF,CS,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -41749,7 +41749,7 @@
       </c>
       <c r="G1624" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41778,7 +41778,7 @@
       </c>
       <c r="G1625" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41923,7 +41923,7 @@
       </c>
       <c r="G1630" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -45038,7 +45038,7 @@
       </c>
       <c r="G1753" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -45067,7 +45067,7 @@
       </c>
       <c r="G1754" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -45154,7 +45154,7 @@
       </c>
       <c r="G1757" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -45183,7 +45183,7 @@
       </c>
       <c r="G1758" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -45212,7 +45212,7 @@
       </c>
       <c r="G1759" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -45241,7 +45241,7 @@
       </c>
       <c r="G1760" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -45411,7 +45411,7 @@
       </c>
       <c r="G1766" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -45973,7 +45973,7 @@
       </c>
       <c r="G1788" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -46085,7 +46085,7 @@
       </c>
       <c r="G1792" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
